--- a/docs/Finance/templates/Common.xlsx
+++ b/docs/Finance/templates/Common.xlsx
@@ -324,55 +324,55 @@
     </row>
     <row r="5">
       <c r="I5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&Q5&") VALUES ("&Y5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&Q5&") VALUES ("&Y5&");" ]]></f>
       </c>
       <c r="J5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f><![CDATA[M5&IF(AND(M5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  M5&IF(AND(M5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
       </c>
       <c r="R5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="T5">
-        <f><![CDATA[S5&IF(AND(S5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  S5&IF(AND(S5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="U5">
-        <f><![CDATA[T5&IF(AND(T5<>"",D5<>""),", ","")&IF(D5<>"","'"&D5&"'","")]]></f>
+        <f><![CDATA[  T5&IF(AND(T5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
       </c>
       <c r="V5">
-        <f><![CDATA[U5&IF(AND(U5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  U5&IF(AND(U5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="W5">
-        <f><![CDATA[V5&IF(AND(V5<>"",F5<>""),", ","")&IF(F5<>"","'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  V5&IF(AND(V5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="X5">
-        <f><![CDATA[W5&IF(AND(W5<>"",G5<>""),", ","")&IF(G5<>"","'"&G5&"'","")]]></f>
+        <f><![CDATA[  W5&IF(AND(W5<>"",G5<>""),", ","")&IF(G5<>"", "'"&G5&"'" ,"") ]]></f>
       </c>
       <c r="Y5">
-        <f><![CDATA[X5&IF(AND(X5<>"",H5<>""),", ","")&IF(H5<>"","'"&TEXT(H5,"YYYY-MM-DD")&" "&TEXT(H5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  X5&IF(AND(X5<>"",H5<>""),", ","")&IF(H5<>"", "'"&TEXT(H5,"YYYY-MM-DD")&" "&TEXT(H5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -464,43 +464,43 @@
     </row>
     <row r="5">
       <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
       </c>
       <c r="H5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="I5">
-        <f><![CDATA[H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="J5">
-        <f><![CDATA[I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"","'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"","'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -628,67 +628,67 @@
     </row>
     <row r="5">
       <c r="K5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&U5&") VALUES ("&AE5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&U5&") VALUES ("&AE5&");" ]]></f>
       </c>
       <c r="L5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f><![CDATA[M5&IF(AND(M5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  M5&IF(AND(M5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
       </c>
       <c r="T5">
-        <f><![CDATA[S5&IF(AND(S5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","")]]></f>
+        <f><![CDATA[  S5&IF(AND(S5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","") ]]></f>
       </c>
       <c r="U5">
-        <f><![CDATA[T5&IF(AND(T5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","")]]></f>
+        <f><![CDATA[  T5&IF(AND(T5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","") ]]></f>
       </c>
       <c r="V5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="W5">
-        <f><![CDATA[V5&IF(AND(V5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  V5&IF(AND(V5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="X5">
-        <f><![CDATA[W5&IF(AND(W5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  W5&IF(AND(W5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="Y5">
-        <f><![CDATA[X5&IF(AND(X5<>"",D5<>""),", ","")&IF(D5<>"","'"&D5&"'","")]]></f>
+        <f><![CDATA[  X5&IF(AND(X5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
       </c>
       <c r="Z5">
-        <f><![CDATA[Y5&IF(AND(Y5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  Y5&IF(AND(Y5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="AA5">
-        <f>Z5&amp;IF(AND(Z5&lt;&gt;"",F5&lt;&gt;""),", ","")&amp;IF(F5&lt;&gt;"",F5,"")</f>
+        <f>  Z5&amp;IF(AND(Z5&lt;&gt;"",F5&lt;&gt;""),", ","")&amp;IF(F5&lt;&gt;"",F5,"") </f>
       </c>
       <c r="AB5">
-        <f><![CDATA[AA5&IF(AND(AA5<>"",G5<>""),", ","")&IF(G5<>"","'"&G5&"'","")]]></f>
+        <f><![CDATA[  AA5&IF(AND(AA5<>"",G5<>""),", ","")&IF(G5<>"", "'"&G5&"'" ,"") ]]></f>
       </c>
       <c r="AC5">
-        <f><![CDATA[AB5&IF(AND(AB5<>"",H5<>""),", ","")&IF(H5<>"","'"&TEXT(H5,"YYYY-MM-DD")&" "&TEXT(H5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  AB5&IF(AND(AB5<>"",H5<>""),", ","")&IF(H5<>"", "'"&TEXT(H5,"YYYY-MM-DD")&" "&TEXT(H5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="AD5">
-        <f><![CDATA[AC5&IF(AND(AC5<>"",I5<>""),", ","")&IF(I5<>"","'"&I5&"'","")]]></f>
+        <f><![CDATA[  AC5&IF(AND(AC5<>"",I5<>""),", ","")&IF(I5<>"", "'"&I5&"'" ,"") ]]></f>
       </c>
       <c r="AE5">
-        <f><![CDATA[AD5&IF(AND(AD5<>"",J5<>""),", ","")&IF(J5<>"","'"&TEXT(J5,"YYYY-MM-DD")&" "&TEXT(J5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  AD5&IF(AND(AD5<>"",J5<>""),", ","")&IF(J5<>"", "'"&TEXT(J5,"YYYY-MM-DD")&" "&TEXT(J5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -780,43 +780,43 @@
     </row>
     <row r="5">
       <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
       </c>
       <c r="H5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="I5">
-        <f><![CDATA[H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="J5">
-        <f><![CDATA[I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"","'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"","'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -962,79 +962,79 @@
     </row>
     <row r="5">
       <c r="M5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&Y5&") VALUES ("&AK5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&Y5&") VALUES ("&AK5&");" ]]></f>
       </c>
       <c r="N5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="T5">
-        <f><![CDATA[S5&IF(AND(S5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","")]]></f>
+        <f><![CDATA[  S5&IF(AND(S5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
       </c>
       <c r="U5">
-        <f><![CDATA[T5&IF(AND(T5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","")]]></f>
+        <f><![CDATA[  T5&IF(AND(T5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
       </c>
       <c r="V5">
-        <f><![CDATA[U5&IF(AND(U5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","")]]></f>
+        <f><![CDATA[  U5&IF(AND(U5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","") ]]></f>
       </c>
       <c r="W5">
-        <f><![CDATA[V5&IF(AND(V5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","")]]></f>
+        <f><![CDATA[  V5&IF(AND(V5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","") ]]></f>
       </c>
       <c r="X5">
-        <f><![CDATA[W5&IF(AND(W5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","")]]></f>
+        <f><![CDATA[  W5&IF(AND(W5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","") ]]></f>
       </c>
       <c r="Y5">
-        <f><![CDATA[X5&IF(AND(X5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","")]]></f>
+        <f><![CDATA[  X5&IF(AND(X5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","") ]]></f>
       </c>
       <c r="Z5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="AA5">
-        <f><![CDATA[Z5&IF(AND(Z5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  Z5&IF(AND(Z5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="AB5">
-        <f><![CDATA[AA5&IF(AND(AA5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  AA5&IF(AND(AA5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="AC5">
-        <f><![CDATA[AB5&IF(AND(AB5<>"",D5<>""),", ","")&IF(D5<>"","'"&TEXT(D5,"YYYY-MM-DD")&"'","")]]></f>
+        <f><![CDATA[  AB5&IF(AND(AB5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&"'" ,"") ]]></f>
       </c>
       <c r="AD5">
-        <f>AC5&amp;IF(AND(AC5&lt;&gt;"",E5&lt;&gt;""),", ","")&amp;IF(E5&lt;&gt;"",E5,"")</f>
+        <f>  AC5&amp;IF(AND(AC5&lt;&gt;"",E5&lt;&gt;""),", ","")&amp;IF(E5&lt;&gt;"",E5,"") </f>
       </c>
       <c r="AE5">
-        <f>AD5&amp;IF(AND(AD5&lt;&gt;"",F5&lt;&gt;""),", ","")&amp;IF(F5&lt;&gt;"",F5,"")</f>
+        <f>  AD5&amp;IF(AND(AD5&lt;&gt;"",F5&lt;&gt;""),", ","")&amp;IF(F5&lt;&gt;"",F5,"") </f>
       </c>
       <c r="AF5">
-        <f>AE5&amp;IF(AND(AE5&lt;&gt;"",G5&lt;&gt;""),", ","")&amp;IF(G5&lt;&gt;"",G5,"")</f>
+        <f>  AE5&amp;IF(AND(AE5&lt;&gt;"",G5&lt;&gt;""),", ","")&amp;IF(G5&lt;&gt;"",G5,"") </f>
       </c>
       <c r="AG5">
-        <f>AF5&amp;IF(AND(AF5&lt;&gt;"",H5&lt;&gt;""),", ","")&amp;IF(H5&lt;&gt;"",H5,"")</f>
+        <f>  AF5&amp;IF(AND(AF5&lt;&gt;"",H5&lt;&gt;""),", ","")&amp;IF(H5&lt;&gt;"",H5,"") </f>
       </c>
       <c r="AH5">
-        <f><![CDATA[AG5&IF(AND(AG5<>"",I5<>""),", ","")&IF(I5<>"","'"&I5&"'","")]]></f>
+        <f><![CDATA[  AG5&IF(AND(AG5<>"",I5<>""),", ","")&IF(I5<>"", "'"&I5&"'" ,"") ]]></f>
       </c>
       <c r="AI5">
-        <f><![CDATA[AH5&IF(AND(AH5<>"",J5<>""),", ","")&IF(J5<>"","'"&TEXT(J5,"YYYY-MM-DD")&" "&TEXT(J5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  AH5&IF(AND(AH5<>"",J5<>""),", ","")&IF(J5<>"", "'"&TEXT(J5,"YYYY-MM-DD")&" "&TEXT(J5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="AJ5">
-        <f><![CDATA[AI5&IF(AND(AI5<>"",K5<>""),", ","")&IF(K5<>"","'"&K5&"'","")]]></f>
+        <f><![CDATA[  AI5&IF(AND(AI5<>"",K5<>""),", ","")&IF(K5<>"", "'"&K5&"'" ,"") ]]></f>
       </c>
       <c r="AK5">
-        <f><![CDATA[AJ5&IF(AND(AJ5<>"",L5<>""),", ","")&IF(L5<>"","'"&TEXT(L5,"YYYY-MM-DD")&" "&TEXT(L5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  AJ5&IF(AND(AJ5<>"",L5<>""),", ","")&IF(L5<>"", "'"&TEXT(L5,"YYYY-MM-DD")&" "&TEXT(L5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -1144,55 +1144,55 @@
     </row>
     <row r="5">
       <c r="I5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&Q5&") VALUES ("&Y5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&Q5&") VALUES ("&Y5&");" ]]></f>
       </c>
       <c r="J5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f><![CDATA[M5&IF(AND(M5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  M5&IF(AND(M5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
       </c>
       <c r="R5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="T5">
-        <f><![CDATA[S5&IF(AND(S5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  S5&IF(AND(S5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="U5">
-        <f><![CDATA[T5&IF(AND(T5<>"",D5<>""),", ","")&IF(D5<>"","'"&D5&"'","")]]></f>
+        <f><![CDATA[  T5&IF(AND(T5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
       </c>
       <c r="V5">
-        <f><![CDATA[U5&IF(AND(U5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  U5&IF(AND(U5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="W5">
-        <f><![CDATA[V5&IF(AND(V5<>"",F5<>""),", ","")&IF(F5<>"","'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  V5&IF(AND(V5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="X5">
-        <f><![CDATA[W5&IF(AND(W5<>"",G5<>""),", ","")&IF(G5<>"","'"&G5&"'","")]]></f>
+        <f><![CDATA[  W5&IF(AND(W5<>"",G5<>""),", ","")&IF(G5<>"", "'"&G5&"'" ,"") ]]></f>
       </c>
       <c r="Y5">
-        <f><![CDATA[X5&IF(AND(X5<>"",H5<>""),", ","")&IF(H5<>"","'"&TEXT(H5,"YYYY-MM-DD")&" "&TEXT(H5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  X5&IF(AND(X5<>"",H5<>""),", ","")&IF(H5<>"", "'"&TEXT(H5,"YYYY-MM-DD")&" "&TEXT(H5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -1320,67 +1320,67 @@
     </row>
     <row r="5">
       <c r="K5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&U5&") VALUES ("&AE5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&U5&") VALUES ("&AE5&");" ]]></f>
       </c>
       <c r="L5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f><![CDATA[M5&IF(AND(M5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  M5&IF(AND(M5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
       </c>
       <c r="T5">
-        <f><![CDATA[S5&IF(AND(S5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","")]]></f>
+        <f><![CDATA[  S5&IF(AND(S5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","") ]]></f>
       </c>
       <c r="U5">
-        <f><![CDATA[T5&IF(AND(T5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","")]]></f>
+        <f><![CDATA[  T5&IF(AND(T5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","") ]]></f>
       </c>
       <c r="V5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="W5">
-        <f><![CDATA[V5&IF(AND(V5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  V5&IF(AND(V5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="X5">
-        <f><![CDATA[W5&IF(AND(W5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  W5&IF(AND(W5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="Y5">
-        <f><![CDATA[X5&IF(AND(X5<>"",D5<>""),", ","")&IF(D5<>"","'"&D5&"'","")]]></f>
+        <f><![CDATA[  X5&IF(AND(X5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
       </c>
       <c r="Z5">
-        <f><![CDATA[Y5&IF(AND(Y5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  Y5&IF(AND(Y5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="AA5">
-        <f><![CDATA[Z5&IF(AND(Z5<>"",F5<>""),", ","")&IF(F5<>"","'"&F5&"'","")]]></f>
+        <f><![CDATA[  Z5&IF(AND(Z5<>"",F5<>""),", ","")&IF(F5<>"", "'"&F5&"'" ,"") ]]></f>
       </c>
       <c r="AB5">
-        <f><![CDATA[AA5&IF(AND(AA5<>"",G5<>""),", ","")&IF(G5<>"","'"&G5&"'","")]]></f>
+        <f><![CDATA[  AA5&IF(AND(AA5<>"",G5<>""),", ","")&IF(G5<>"", "'"&G5&"'" ,"") ]]></f>
       </c>
       <c r="AC5">
-        <f><![CDATA[AB5&IF(AND(AB5<>"",H5<>""),", ","")&IF(H5<>"","'"&TEXT(H5,"YYYY-MM-DD")&" "&TEXT(H5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  AB5&IF(AND(AB5<>"",H5<>""),", ","")&IF(H5<>"", "'"&TEXT(H5,"YYYY-MM-DD")&" "&TEXT(H5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="AD5">
-        <f><![CDATA[AC5&IF(AND(AC5<>"",I5<>""),", ","")&IF(I5<>"","'"&I5&"'","")]]></f>
+        <f><![CDATA[  AC5&IF(AND(AC5<>"",I5<>""),", ","")&IF(I5<>"", "'"&I5&"'" ,"") ]]></f>
       </c>
       <c r="AE5">
-        <f><![CDATA[AD5&IF(AND(AD5<>"",J5<>""),", ","")&IF(J5<>"","'"&TEXT(J5,"YYYY-MM-DD")&" "&TEXT(J5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  AD5&IF(AND(AD5<>"",J5<>""),", ","")&IF(J5<>"", "'"&TEXT(J5,"YYYY-MM-DD")&" "&TEXT(J5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>

--- a/docs/Finance/templates/Common.xlsx
+++ b/docs/Finance/templates/Common.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="79">
   <si>
     <t>common</t>
   </si>
@@ -32,45 +32,69 @@
     <t/>
   </si>
   <si>
+    <t>Country Id</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>varchar(3), PK, NN</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>varchar(100), NN</t>
   </si>
   <si>
+    <t>Country Key</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
     <t>varchar(3)</t>
   </si>
   <si>
+    <t>Language Id</t>
+  </si>
+  <si>
     <t>language_id</t>
   </si>
   <si>
     <t>varchar(3), NN</t>
   </si>
   <si>
+    <t>User created record</t>
+  </si>
+  <si>
     <t>created_by</t>
   </si>
   <si>
     <t>varchar(20), NN</t>
   </si>
   <si>
+    <t>Timestamp of record create</t>
+  </si>
+  <si>
     <t>created_at</t>
   </si>
   <si>
     <t>timestamptz, NN</t>
   </si>
   <si>
+    <t>User updated record</t>
+  </si>
+  <si>
     <t>updated_by</t>
   </si>
   <si>
+    <t>Timestamp of record update</t>
+  </si>
+  <si>
     <t>updated_at</t>
   </si>
   <si>
@@ -89,15 +113,30 @@
     <t>Currency</t>
   </si>
   <si>
+    <t>Currency Id</t>
+  </si>
+  <si>
     <t>varchar(5), PK, NN</t>
   </si>
   <si>
+    <t>Short name</t>
+  </si>
+  <si>
     <t>short_name</t>
   </si>
   <si>
+    <t>Currency ISO code</t>
+  </si>
+  <si>
     <t>iso_code</t>
   </si>
   <si>
+    <t>Currency key</t>
+  </si>
+  <si>
+    <t>Currency decimals</t>
+  </si>
+  <si>
     <t>decimals</t>
   </si>
   <si>
@@ -110,6 +149,9 @@
     <t>Exchange rate type</t>
   </si>
   <si>
+    <t>Exchange rate type Id</t>
+  </si>
+  <si>
     <t>varchar(4), PK, NN</t>
   </si>
   <si>
@@ -122,30 +164,51 @@
     <t>exchange_rate_type_id</t>
   </si>
   <si>
+    <t>From Currency Id</t>
+  </si>
+  <si>
     <t>from_currency_id</t>
   </si>
   <si>
+    <t>To Currency Id</t>
+  </si>
+  <si>
     <t>to_currency_id</t>
   </si>
   <si>
+    <t>Effective from</t>
+  </si>
+  <si>
     <t>effective_from</t>
   </si>
   <si>
     <t>date, PK, NN</t>
   </si>
   <si>
+    <t>Exchange rate</t>
+  </si>
+  <si>
     <t>exchange_rate</t>
   </si>
   <si>
     <t>decimal(25,5), NN</t>
   </si>
   <si>
+    <t>Currency ratio from</t>
+  </si>
+  <si>
     <t>ratio_from</t>
   </si>
   <si>
+    <t>Currency ratio to</t>
+  </si>
+  <si>
     <t>ratio_to</t>
   </si>
   <si>
+    <t>Direct ratio indicator</t>
+  </si>
+  <si>
     <t>direct_rate</t>
   </si>
   <si>
@@ -158,12 +221,18 @@
     <t>Unit of measurement</t>
   </si>
   <si>
+    <t>Unit of measurement Id</t>
+  </si>
+  <si>
     <t>varchar(6), PK, NN</t>
   </si>
   <si>
     <t>varchar(30), NN</t>
   </si>
   <si>
+    <t>ISOCode</t>
+  </si>
+  <si>
     <t>uom_texts</t>
   </si>
   <si>
@@ -173,10 +242,16 @@
     <t>uom_id</t>
   </si>
   <si>
+    <t>UoM commercial code</t>
+  </si>
+  <si>
     <t>commercial_code</t>
   </si>
   <si>
     <t>varchar(6), NN</t>
+  </si>
+  <si>
+    <t>UoM technical code</t>
   </si>
   <si>
     <t>technical_code</t>
@@ -224,7 +299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -267,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -275,25 +350,25 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -301,78 +376,104 @@
         <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s" s="0">
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="G4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="I5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&Q5&") VALUES ("&Y5&");" ]]></f>
-      </c>
-      <c r="J5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f><![CDATA[  M5&IF(AND(M5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
-      </c>
-      <c r="R5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="T5">
-        <f><![CDATA[  S5&IF(AND(S5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="U5">
-        <f><![CDATA[  T5&IF(AND(T5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
-      </c>
-      <c r="V5">
-        <f><![CDATA[  U5&IF(AND(U5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="W5">
-        <f><![CDATA[  V5&IF(AND(V5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="X5">
-        <f><![CDATA[  W5&IF(AND(W5<>"",G5<>""),", ","")&IF(G5<>"", "'"&G5&"'" ,"") ]]></f>
-      </c>
-      <c r="Y5">
-        <f><![CDATA[  X5&IF(AND(X5<>"",H5<>""),", ","")&IF(H5<>"", "'"&TEXT(H5,"YYYY-MM-DD")&" "&TEXT(H5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="E5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="I6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&Q6&") VALUES ("&Y6&");" ]]></f>
+      </c>
+      <c r="J6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f><![CDATA[  M6&IF(AND(M6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",G6<>""),", ","")&IF(G6<>"",""""&G$4&"""","") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",H6<>""),", ","")&IF(H6<>"",""""&H$4&"""","") ]]></f>
+      </c>
+      <c r="R6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="T6">
+        <f><![CDATA[  S6&IF(AND(S6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="U6">
+        <f><![CDATA[  T6&IF(AND(T6<>"",D6<>""),", ","")&IF(D6<>"", "'"&D6&"'" ,"") ]]></f>
+      </c>
+      <c r="V6">
+        <f><![CDATA[  U6&IF(AND(U6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="W6">
+        <f><![CDATA[  V6&IF(AND(V6<>"",F6<>""),", ","")&IF(F6<>"", "'"&TEXT(F6,"YYYY-MM-DD")&" "&TEXT(F6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="X6">
+        <f><![CDATA[  W6&IF(AND(W6<>"",G6<>""),", ","")&IF(G6<>"", "'"&G6&"'" ,"") ]]></f>
+      </c>
+      <c r="Y6">
+        <f><![CDATA[  X6&IF(AND(X6<>"",H6<>""),", ","")&IF(H6<>"", "'"&TEXT(H6,"YYYY-MM-DD")&" "&TEXT(H6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -382,7 +483,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,10 +494,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -419,27 +520,27 @@
         <v>3</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -447,60 +548,80 @@
         <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
-      <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
-      </c>
-      <c r="H5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="I5">
-        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="J5">
-        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="G6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M6&") VALUES ("&S6&");" ]]></f>
+      </c>
+      <c r="H6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="I6">
+        <f><![CDATA[  H6&IF(AND(H6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="J6">
+        <f><![CDATA[  I6&IF(AND(I6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",D6<>""),", ","")&IF(D6<>"", "'"&TEXT(D6,"YYYY-MM-DD")&" "&TEXT(D6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",F6<>""),", ","")&IF(F6<>"", "'"&TEXT(F6,"YYYY-MM-DD")&" "&TEXT(F6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -510,7 +631,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -521,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -559,136 +680,168 @@
         <v>3</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s" s="0">
         <v>24</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>11</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="I4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s" s="0">
+      <c r="E5" t="s" s="0">
         <v>15</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="K5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&U5&") VALUES ("&AE5&");" ]]></f>
-      </c>
-      <c r="L5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f><![CDATA[  M5&IF(AND(M5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
-      </c>
-      <c r="T5">
-        <f><![CDATA[  S5&IF(AND(S5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","") ]]></f>
-      </c>
-      <c r="U5">
-        <f><![CDATA[  T5&IF(AND(T5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","") ]]></f>
-      </c>
-      <c r="V5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="W5">
-        <f><![CDATA[  V5&IF(AND(V5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="X5">
-        <f><![CDATA[  W5&IF(AND(W5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="Y5">
-        <f><![CDATA[  X5&IF(AND(X5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
-      </c>
-      <c r="Z5">
-        <f><![CDATA[  Y5&IF(AND(Y5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="AA5">
-        <f>  Z5&amp;IF(AND(Z5&lt;&gt;"",F5&lt;&gt;""),", ","")&amp;IF(F5&lt;&gt;"",F5,"") </f>
-      </c>
-      <c r="AB5">
-        <f><![CDATA[  AA5&IF(AND(AA5<>"",G5<>""),", ","")&IF(G5<>"", "'"&G5&"'" ,"") ]]></f>
-      </c>
-      <c r="AC5">
-        <f><![CDATA[  AB5&IF(AND(AB5<>"",H5<>""),", ","")&IF(H5<>"", "'"&TEXT(H5,"YYYY-MM-DD")&" "&TEXT(H5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="AD5">
-        <f><![CDATA[  AC5&IF(AND(AC5<>"",I5<>""),", ","")&IF(I5<>"", "'"&I5&"'" ,"") ]]></f>
-      </c>
-      <c r="AE5">
-        <f><![CDATA[  AD5&IF(AND(AD5<>"",J5<>""),", ","")&IF(J5<>"", "'"&TEXT(J5,"YYYY-MM-DD")&" "&TEXT(J5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="F5" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="K6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&U6&") VALUES ("&AE6&");" ]]></f>
+      </c>
+      <c r="L6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f><![CDATA[  M6&IF(AND(M6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",G6<>""),", ","")&IF(G6<>"",""""&G$4&"""","") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",H6<>""),", ","")&IF(H6<>"",""""&H$4&"""","") ]]></f>
+      </c>
+      <c r="T6">
+        <f><![CDATA[  S6&IF(AND(S6<>"",I6<>""),", ","")&IF(I6<>"",""""&I$4&"""","") ]]></f>
+      </c>
+      <c r="U6">
+        <f><![CDATA[  T6&IF(AND(T6<>"",J6<>""),", ","")&IF(J6<>"",""""&J$4&"""","") ]]></f>
+      </c>
+      <c r="V6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="W6">
+        <f><![CDATA[  V6&IF(AND(V6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="X6">
+        <f><![CDATA[  W6&IF(AND(W6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="Y6">
+        <f><![CDATA[  X6&IF(AND(X6<>"",D6<>""),", ","")&IF(D6<>"", "'"&D6&"'" ,"") ]]></f>
+      </c>
+      <c r="Z6">
+        <f><![CDATA[  Y6&IF(AND(Y6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="AA6">
+        <f>  Z6&amp;IF(AND(Z6&lt;&gt;"",F6&lt;&gt;""),", ","")&amp;IF(F6&lt;&gt;"",F6,"") </f>
+      </c>
+      <c r="AB6">
+        <f><![CDATA[  AA6&IF(AND(AA6<>"",G6<>""),", ","")&IF(G6<>"", "'"&G6&"'" ,"") ]]></f>
+      </c>
+      <c r="AC6">
+        <f><![CDATA[  AB6&IF(AND(AB6<>"",H6<>""),", ","")&IF(H6<>"", "'"&TEXT(H6,"YYYY-MM-DD")&" "&TEXT(H6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="AD6">
+        <f><![CDATA[  AC6&IF(AND(AC6<>"",I6<>""),", ","")&IF(I6<>"", "'"&I6&"'" ,"") ]]></f>
+      </c>
+      <c r="AE6">
+        <f><![CDATA[  AD6&IF(AND(AD6<>"",J6<>""),", ","")&IF(J6<>"", "'"&TEXT(J6,"YYYY-MM-DD")&" "&TEXT(J6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -698,7 +851,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -709,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -735,88 +888,108 @@
         <v>3</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
-      <c r="G5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M5&") VALUES ("&S5&");" ]]></f>
-      </c>
-      <c r="H5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="I5">
-        <f><![CDATA[  H5&IF(AND(H5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="J5">
-        <f><![CDATA[  I5&IF(AND(I5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="A5" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="G6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&M6&") VALUES ("&S6&");" ]]></f>
+      </c>
+      <c r="H6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="I6">
+        <f><![CDATA[  H6&IF(AND(H6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="J6">
+        <f><![CDATA[  I6&IF(AND(I6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",D6<>""),", ","")&IF(D6<>"", "'"&TEXT(D6,"YYYY-MM-DD")&" "&TEXT(D6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",F6<>""),", ","")&IF(F6<>"", "'"&TEXT(F6,"YYYY-MM-DD")&" "&TEXT(F6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -826,7 +999,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -837,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -881,160 +1054,198 @@
         <v>3</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>13</v>
-      </c>
       <c r="L4" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
-      <c r="M5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&Y5&") VALUES ("&AK5&");" ]]></f>
-      </c>
-      <c r="N5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="T5">
-        <f><![CDATA[  S5&IF(AND(S5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
-      </c>
-      <c r="U5">
-        <f><![CDATA[  T5&IF(AND(T5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
-      </c>
-      <c r="V5">
-        <f><![CDATA[  U5&IF(AND(U5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","") ]]></f>
-      </c>
-      <c r="W5">
-        <f><![CDATA[  V5&IF(AND(V5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","") ]]></f>
-      </c>
-      <c r="X5">
-        <f><![CDATA[  W5&IF(AND(W5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","") ]]></f>
-      </c>
-      <c r="Y5">
-        <f><![CDATA[  X5&IF(AND(X5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","") ]]></f>
-      </c>
-      <c r="Z5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="AA5">
-        <f><![CDATA[  Z5&IF(AND(Z5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="AB5">
-        <f><![CDATA[  AA5&IF(AND(AA5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="AC5">
-        <f><![CDATA[  AB5&IF(AND(AB5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&"'" ,"") ]]></f>
-      </c>
-      <c r="AD5">
-        <f>  AC5&amp;IF(AND(AC5&lt;&gt;"",E5&lt;&gt;""),", ","")&amp;IF(E5&lt;&gt;"",E5,"") </f>
-      </c>
-      <c r="AE5">
-        <f>  AD5&amp;IF(AND(AD5&lt;&gt;"",F5&lt;&gt;""),", ","")&amp;IF(F5&lt;&gt;"",F5,"") </f>
-      </c>
-      <c r="AF5">
-        <f>  AE5&amp;IF(AND(AE5&lt;&gt;"",G5&lt;&gt;""),", ","")&amp;IF(G5&lt;&gt;"",G5,"") </f>
-      </c>
-      <c r="AG5">
-        <f>  AF5&amp;IF(AND(AF5&lt;&gt;"",H5&lt;&gt;""),", ","")&amp;IF(H5&lt;&gt;"",H5,"") </f>
-      </c>
-      <c r="AH5">
-        <f><![CDATA[  AG5&IF(AND(AG5<>"",I5<>""),", ","")&IF(I5<>"", "'"&I5&"'" ,"") ]]></f>
-      </c>
-      <c r="AI5">
-        <f><![CDATA[  AH5&IF(AND(AH5<>"",J5<>""),", ","")&IF(J5<>"", "'"&TEXT(J5,"YYYY-MM-DD")&" "&TEXT(J5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="AJ5">
-        <f><![CDATA[  AI5&IF(AND(AI5<>"",K5<>""),", ","")&IF(K5<>"", "'"&K5&"'" ,"") ]]></f>
-      </c>
-      <c r="AK5">
-        <f><![CDATA[  AJ5&IF(AND(AJ5<>"",L5<>""),", ","")&IF(L5<>"", "'"&TEXT(L5,"YYYY-MM-DD")&" "&TEXT(L5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="A5" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="M6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&Y6&") VALUES ("&AK6&");" ]]></f>
+      </c>
+      <c r="N6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="T6">
+        <f><![CDATA[  S6&IF(AND(S6<>"",G6<>""),", ","")&IF(G6<>"",""""&G$4&"""","") ]]></f>
+      </c>
+      <c r="U6">
+        <f><![CDATA[  T6&IF(AND(T6<>"",H6<>""),", ","")&IF(H6<>"",""""&H$4&"""","") ]]></f>
+      </c>
+      <c r="V6">
+        <f><![CDATA[  U6&IF(AND(U6<>"",I6<>""),", ","")&IF(I6<>"",""""&I$4&"""","") ]]></f>
+      </c>
+      <c r="W6">
+        <f><![CDATA[  V6&IF(AND(V6<>"",J6<>""),", ","")&IF(J6<>"",""""&J$4&"""","") ]]></f>
+      </c>
+      <c r="X6">
+        <f><![CDATA[  W6&IF(AND(W6<>"",K6<>""),", ","")&IF(K6<>"",""""&K$4&"""","") ]]></f>
+      </c>
+      <c r="Y6">
+        <f><![CDATA[  X6&IF(AND(X6<>"",L6<>""),", ","")&IF(L6<>"",""""&L$4&"""","") ]]></f>
+      </c>
+      <c r="Z6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="AA6">
+        <f><![CDATA[  Z6&IF(AND(Z6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="AB6">
+        <f><![CDATA[  AA6&IF(AND(AA6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="AC6">
+        <f><![CDATA[  AB6&IF(AND(AB6<>"",D6<>""),", ","")&IF(D6<>"", "'"&TEXT(D6,"YYYY-MM-DD")&"'" ,"") ]]></f>
+      </c>
+      <c r="AD6">
+        <f>  AC6&amp;IF(AND(AC6&lt;&gt;"",E6&lt;&gt;""),", ","")&amp;IF(E6&lt;&gt;"",E6,"") </f>
+      </c>
+      <c r="AE6">
+        <f>  AD6&amp;IF(AND(AD6&lt;&gt;"",F6&lt;&gt;""),", ","")&amp;IF(F6&lt;&gt;"",F6,"") </f>
+      </c>
+      <c r="AF6">
+        <f>  AE6&amp;IF(AND(AE6&lt;&gt;"",G6&lt;&gt;""),", ","")&amp;IF(G6&lt;&gt;"",G6,"") </f>
+      </c>
+      <c r="AG6">
+        <f>  AF6&amp;IF(AND(AF6&lt;&gt;"",H6&lt;&gt;""),", ","")&amp;IF(H6&lt;&gt;"",H6,"") </f>
+      </c>
+      <c r="AH6">
+        <f><![CDATA[  AG6&IF(AND(AG6<>"",I6<>""),", ","")&IF(I6<>"", "'"&I6&"'" ,"") ]]></f>
+      </c>
+      <c r="AI6">
+        <f><![CDATA[  AH6&IF(AND(AH6<>"",J6<>""),", ","")&IF(J6<>"", "'"&TEXT(J6,"YYYY-MM-DD")&" "&TEXT(J6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="AJ6">
+        <f><![CDATA[  AI6&IF(AND(AI6<>"",K6<>""),", ","")&IF(K6<>"", "'"&K6&"'" ,"") ]]></f>
+      </c>
+      <c r="AK6">
+        <f><![CDATA[  AJ6&IF(AND(AJ6<>"",L6<>""),", ","")&IF(L6<>"", "'"&TEXT(L6,"YYYY-MM-DD")&" "&TEXT(L6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -1044,7 +1255,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1055,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
@@ -1087,112 +1298,138 @@
         <v>3</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>24</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="I5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&Q5&") VALUES ("&Y5&");" ]]></f>
-      </c>
-      <c r="J5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f><![CDATA[  M5&IF(AND(M5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
-      </c>
-      <c r="R5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="T5">
-        <f><![CDATA[  S5&IF(AND(S5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="U5">
-        <f><![CDATA[  T5&IF(AND(T5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
-      </c>
-      <c r="V5">
-        <f><![CDATA[  U5&IF(AND(U5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="W5">
-        <f><![CDATA[  V5&IF(AND(V5<>"",F5<>""),", ","")&IF(F5<>"", "'"&TEXT(F5,"YYYY-MM-DD")&" "&TEXT(F5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="X5">
-        <f><![CDATA[  W5&IF(AND(W5<>"",G5<>""),", ","")&IF(G5<>"", "'"&G5&"'" ,"") ]]></f>
-      </c>
-      <c r="Y5">
-        <f><![CDATA[  X5&IF(AND(X5<>"",H5<>""),", ","")&IF(H5<>"", "'"&TEXT(H5,"YYYY-MM-DD")&" "&TEXT(H5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="C5" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="I6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&Q6&") VALUES ("&Y6&");" ]]></f>
+      </c>
+      <c r="J6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f><![CDATA[  M6&IF(AND(M6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",G6<>""),", ","")&IF(G6<>"",""""&G$4&"""","") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",H6<>""),", ","")&IF(H6<>"",""""&H$4&"""","") ]]></f>
+      </c>
+      <c r="R6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="T6">
+        <f><![CDATA[  S6&IF(AND(S6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="U6">
+        <f><![CDATA[  T6&IF(AND(T6<>"",D6<>""),", ","")&IF(D6<>"", "'"&D6&"'" ,"") ]]></f>
+      </c>
+      <c r="V6">
+        <f><![CDATA[  U6&IF(AND(U6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="W6">
+        <f><![CDATA[  V6&IF(AND(V6<>"",F6<>""),", ","")&IF(F6<>"", "'"&TEXT(F6,"YYYY-MM-DD")&" "&TEXT(F6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="X6">
+        <f><![CDATA[  W6&IF(AND(W6<>"",G6<>""),", ","")&IF(G6<>"", "'"&G6&"'" ,"") ]]></f>
+      </c>
+      <c r="Y6">
+        <f><![CDATA[  X6&IF(AND(X6<>"",H6<>""),", ","")&IF(H6<>"", "'"&TEXT(H6,"YYYY-MM-DD")&" "&TEXT(H6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1439,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1213,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -1251,136 +1488,168 @@
         <v>3</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s" s="0">
         <v>24</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
-      <c r="K5" s="0">
-        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&U5&") VALUES ("&AE5&");" ]]></f>
-      </c>
-      <c r="L5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f><![CDATA[  M5&IF(AND(M5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
-      </c>
-      <c r="T5">
-        <f><![CDATA[  S5&IF(AND(S5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","") ]]></f>
-      </c>
-      <c r="U5">
-        <f><![CDATA[  T5&IF(AND(T5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","") ]]></f>
-      </c>
-      <c r="V5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="W5">
-        <f><![CDATA[  V5&IF(AND(V5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="X5">
-        <f><![CDATA[  W5&IF(AND(W5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="Y5">
-        <f><![CDATA[  X5&IF(AND(X5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
-      </c>
-      <c r="Z5">
-        <f><![CDATA[  Y5&IF(AND(Y5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="AA5">
-        <f><![CDATA[  Z5&IF(AND(Z5<>"",F5<>""),", ","")&IF(F5<>"", "'"&F5&"'" ,"") ]]></f>
-      </c>
-      <c r="AB5">
-        <f><![CDATA[  AA5&IF(AND(AA5<>"",G5<>""),", ","")&IF(G5<>"", "'"&G5&"'" ,"") ]]></f>
-      </c>
-      <c r="AC5">
-        <f><![CDATA[  AB5&IF(AND(AB5<>"",H5<>""),", ","")&IF(H5<>"", "'"&TEXT(H5,"YYYY-MM-DD")&" "&TEXT(H5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="AD5">
-        <f><![CDATA[  AC5&IF(AND(AC5<>"",I5<>""),", ","")&IF(I5<>"", "'"&I5&"'" ,"") ]]></f>
-      </c>
-      <c r="AE5">
-        <f><![CDATA[  AD5&IF(AND(AD5<>"",J5<>""),", ","")&IF(J5<>"", "'"&TEXT(J5,"YYYY-MM-DD")&" "&TEXT(J5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="K6" s="0">
+        <f><![CDATA["INSERT INTO """&A$1&"""."""&B$1&""" ("&U6&") VALUES ("&AE6&");" ]]></f>
+      </c>
+      <c r="L6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f><![CDATA[  M6&IF(AND(M6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",G6<>""),", ","")&IF(G6<>"",""""&G$4&"""","") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",H6<>""),", ","")&IF(H6<>"",""""&H$4&"""","") ]]></f>
+      </c>
+      <c r="T6">
+        <f><![CDATA[  S6&IF(AND(S6<>"",I6<>""),", ","")&IF(I6<>"",""""&I$4&"""","") ]]></f>
+      </c>
+      <c r="U6">
+        <f><![CDATA[  T6&IF(AND(T6<>"",J6<>""),", ","")&IF(J6<>"",""""&J$4&"""","") ]]></f>
+      </c>
+      <c r="V6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="W6">
+        <f><![CDATA[  V6&IF(AND(V6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="X6">
+        <f><![CDATA[  W6&IF(AND(W6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="Y6">
+        <f><![CDATA[  X6&IF(AND(X6<>"",D6<>""),", ","")&IF(D6<>"", "'"&D6&"'" ,"") ]]></f>
+      </c>
+      <c r="Z6">
+        <f><![CDATA[  Y6&IF(AND(Y6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="AA6">
+        <f><![CDATA[  Z6&IF(AND(Z6<>"",F6<>""),", ","")&IF(F6<>"", "'"&F6&"'" ,"") ]]></f>
+      </c>
+      <c r="AB6">
+        <f><![CDATA[  AA6&IF(AND(AA6<>"",G6<>""),", ","")&IF(G6<>"", "'"&G6&"'" ,"") ]]></f>
+      </c>
+      <c r="AC6">
+        <f><![CDATA[  AB6&IF(AND(AB6<>"",H6<>""),", ","")&IF(H6<>"", "'"&TEXT(H6,"YYYY-MM-DD")&" "&TEXT(H6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="AD6">
+        <f><![CDATA[  AC6&IF(AND(AC6<>"",I6<>""),", ","")&IF(I6<>"", "'"&I6&"'" ,"") ]]></f>
+      </c>
+      <c r="AE6">
+        <f><![CDATA[  AD6&IF(AND(AD6<>"",J6<>""),", ","")&IF(J6<>"", "'"&TEXT(J6,"YYYY-MM-DD")&" "&TEXT(J6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
